--- a/Interface/后台系统/商品管理/规格.xlsx
+++ b/Interface/后台系统/商品管理/规格.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="96">
   <si>
     <t>是否有机</t>
   </si>
@@ -898,14 +898,37 @@
   </si>
   <si>
     <t>是否礼盒装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品添加剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -942,6 +965,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1018,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1027,6 +1058,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1036,6 +1068,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1312,14 +1345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -1330,23 +1363,23 @@
     <col min="12" max="12" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="45" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -1364,7 +1397,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1382,7 +1415,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>54</v>
       </c>
@@ -1400,7 +1433,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>86</v>
       </c>
@@ -1418,7 +1451,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -1436,7 +1469,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -1466,7 +1499,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -1484,7 +1517,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -1504,7 +1537,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +1557,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +1577,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
@@ -1564,7 +1597,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -1600,7 +1633,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -1618,7 +1651,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1636,7 +1669,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1654,7 +1687,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>81</v>
       </c>
@@ -1672,7 +1705,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -1696,7 +1729,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="41.1" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -1720,7 +1753,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
@@ -1738,7 +1771,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>75</v>
       </c>
@@ -1756,7 +1789,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1774,7 +1807,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
@@ -1792,7 +1825,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>87</v>
       </c>
@@ -1816,7 +1849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -1836,7 +1869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -1854,7 +1887,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1913,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -1904,7 +1937,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -1942,7 +1975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="3" customFormat="1" ht="56.1" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>83</v>
       </c>
@@ -1970,7 +2003,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
@@ -1988,7 +2021,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="38.1" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>84</v>
       </c>
@@ -2006,7 +2039,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2024,7 +2057,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -2042,7 +2075,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -2060,7 +2093,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="56.1" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>85</v>
       </c>
@@ -2078,7 +2111,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -2096,6 +2129,60 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
+    <row r="38" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" ht="39.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="36" customHeight="1">
+      <c r="A40" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
